--- a/excel/sec.xlsx
+++ b/excel/sec.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="V22" sheetId="1" r:id="rId1"/>
+    <sheet name="V21" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -58,7 +58,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -75,10 +75,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -376,25 +379,32 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>201411823</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>201410617</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>201410881</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>201512068</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>201512491</v>
       </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
